--- a/classify_report_lstm.xlsx
+++ b/classify_report_lstm.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
         <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5454545454545454</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -509,13 +509,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -594,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2077380952380952</v>
+        <v>0.18125</v>
       </c>
       <c r="C11">
-        <v>0.3375</v>
+        <v>0.34375</v>
       </c>
       <c r="D11">
-        <v>0.2330627705627706</v>
+        <v>0.21875</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -611,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.1945578231292517</v>
+        <v>0.1571428571428572</v>
       </c>
       <c r="C12">
         <v>0.2857142857142857</v>
       </c>
       <c r="D12">
-        <v>0.2139764996907854</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E12">
         <v>28</v>
